--- a/biology/Botanique/Cinnamomum/Cinnamomum.xlsx
+++ b/biology/Botanique/Cinnamomum/Cinnamomum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinnamomum est un genre d'arbres et d'arbustes de la famille des Lauraceae (même famille que le laurier sauce).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est composé de plus de 300 espèces originaires des régions tropicales et chaudes d'Asie du Sud-Est principalement mais aussi d'Amérique centrale et d'Amérique du Sud.
 </t>
@@ -542,13 +556,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces de Cinnamomum produisent des huiles essentielles à partir de leurs feuilles et de leur écorce.
 Les espèces de Cinnamomum les plus connues sont :
 les canneliers, notamment Cinnamomum verum, le cannelier de Ceylan ou Cinnamomum loureiroi, le cannelier du Vietnam, le cannelier de Chine ou casse, le cannelier de Malaisie
 le camphrier  (Cinnamomum camphora), qui fournit une huile essentielle, le camphre.
-Cinnamomum tamala (Buch.-Ham.) Nees &amp; Eberm. Voir Malabathrum (en) ; sous le nom de Malabathre, ses feuilles étaient, comme la cannelle, un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [1].
+Cinnamomum tamala (Buch.-Ham.) Nees &amp; Eberm. Voir Malabathrum (en) ; sous le nom de Malabathre, ses feuilles étaient, comme la cannelle, un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
 Certaines espèces fournissent du bois d'œuvre.</t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon « The Plant List »[2] 30 octobre 2015 :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon « The Plant List » 30 octobre 2015 :
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2]   30 octobre 2015
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   30 octobre 2015
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2]   30 octobre 2015
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   30 octobre 2015
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cinnamomum burmannii
